--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H2">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I2">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J2">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N2">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O2">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P2">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q2">
-        <v>7.468678449420444</v>
+        <v>4.091098807780112</v>
       </c>
       <c r="R2">
-        <v>67.21810604478399</v>
+        <v>36.819889270021</v>
       </c>
       <c r="S2">
-        <v>0.001490459653317989</v>
+        <v>0.0006055223789063731</v>
       </c>
       <c r="T2">
-        <v>0.00149045965331799</v>
+        <v>0.0006055223789063729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H3">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I3">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J3">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P3">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q3">
-        <v>27.50523416491556</v>
+        <v>84.15743650599279</v>
       </c>
       <c r="R3">
-        <v>247.5471074842401</v>
+        <v>757.4169285539351</v>
       </c>
       <c r="S3">
-        <v>0.005488982027476538</v>
+        <v>0.01245611840487959</v>
       </c>
       <c r="T3">
-        <v>0.00548898202747654</v>
+        <v>0.01245611840487959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H4">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I4">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J4">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N4">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q4">
-        <v>68.45318084912178</v>
+        <v>232.665690796318</v>
       </c>
       <c r="R4">
-        <v>616.0786276420961</v>
+        <v>2093.991217166862</v>
       </c>
       <c r="S4">
-        <v>0.01366061009157688</v>
+        <v>0.03443678317252057</v>
       </c>
       <c r="T4">
-        <v>0.01366061009157688</v>
+        <v>0.03443678317252056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H5">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I5">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J5">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N5">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q5">
-        <v>41.04047279024355</v>
+        <v>226.5496144704144</v>
       </c>
       <c r="R5">
-        <v>369.364255112192</v>
+        <v>2038.94653023373</v>
       </c>
       <c r="S5">
-        <v>0.00819009269996078</v>
+        <v>0.03353154444316228</v>
       </c>
       <c r="T5">
-        <v>0.008190092699960783</v>
+        <v>0.03353154444316227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>220.729927</v>
       </c>
       <c r="I6">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J6">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N6">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O6">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P6">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q6">
-        <v>220.8507643722588</v>
+        <v>39.5382972249699</v>
       </c>
       <c r="R6">
-        <v>1987.656879350329</v>
+        <v>355.8446750247291</v>
       </c>
       <c r="S6">
-        <v>0.04407327962108646</v>
+        <v>0.005852052203687039</v>
       </c>
       <c r="T6">
-        <v>0.04407327962108648</v>
+        <v>0.005852052203687038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>220.729927</v>
       </c>
       <c r="I7">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J7">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P7">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q7">
         <v>813.3369284402573</v>
@@ -883,10 +883,10 @@
         <v>7320.032355962317</v>
       </c>
       <c r="S7">
-        <v>0.1623106262511345</v>
+        <v>0.1203817690310886</v>
       </c>
       <c r="T7">
-        <v>0.1623106262511345</v>
+        <v>0.1203817690310885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>220.729927</v>
       </c>
       <c r="I8">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J8">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N8">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q8">
-        <v>2024.1783625608</v>
+        <v>2248.590334524182</v>
       </c>
       <c r="R8">
-        <v>18217.6052630472</v>
+        <v>20237.31301071764</v>
       </c>
       <c r="S8">
-        <v>0.4039477935685202</v>
+        <v>0.3328132202423554</v>
       </c>
       <c r="T8">
-        <v>0.4039477935685203</v>
+        <v>0.3328132202423554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>220.729927</v>
       </c>
       <c r="I9">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J9">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N9">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q9">
-        <v>1213.57745514235</v>
+        <v>2189.481705037086</v>
       </c>
       <c r="R9">
-        <v>10922.19709628115</v>
+        <v>19705.33534533377</v>
       </c>
       <c r="S9">
-        <v>0.2421831714024793</v>
+        <v>0.3240645686886808</v>
       </c>
       <c r="T9">
-        <v>0.2421831714024794</v>
+        <v>0.3240645686886807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H10">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I10">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J10">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N10">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O10">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P10">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q10">
-        <v>30.59155201206421</v>
+        <v>6.835784253703778</v>
       </c>
       <c r="R10">
-        <v>275.3239681085779</v>
+        <v>61.522058283334</v>
       </c>
       <c r="S10">
-        <v>0.006104891824590277</v>
+        <v>0.001011762496452497</v>
       </c>
       <c r="T10">
-        <v>0.006104891824590279</v>
+        <v>0.001011762496452496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H11">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I11">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J11">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P11">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q11">
-        <v>112.6608686206478</v>
+        <v>140.6179870810545</v>
       </c>
       <c r="R11">
-        <v>1013.94781758583</v>
+        <v>1265.56188372949</v>
       </c>
       <c r="S11">
-        <v>0.02248275653102514</v>
+        <v>0.02081282854680009</v>
       </c>
       <c r="T11">
-        <v>0.02248275653102515</v>
+        <v>0.02081282854680009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H12">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I12">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J12">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N12">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q12">
-        <v>280.3828088889869</v>
+        <v>388.759240548772</v>
       </c>
       <c r="R12">
-        <v>2523.445280000882</v>
+        <v>3498.833164938948</v>
       </c>
       <c r="S12">
-        <v>0.05595357558410238</v>
+        <v>0.05754014537885484</v>
       </c>
       <c r="T12">
-        <v>0.05595357558410239</v>
+        <v>0.05754014537885483</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H13">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I13">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J13">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N13">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q13">
-        <v>168.1009252794737</v>
+        <v>378.5399375674911</v>
       </c>
       <c r="R13">
-        <v>1512.908327515264</v>
+        <v>3406.85943810742</v>
       </c>
       <c r="S13">
-        <v>0.03354644981856458</v>
+        <v>0.05602758923129313</v>
       </c>
       <c r="T13">
-        <v>0.03354644981856459</v>
+        <v>0.05602758923129312</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H14">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I14">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J14">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N14">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O14">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P14">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q14">
-        <v>0.1469664119246666</v>
+        <v>0.02353257606944445</v>
       </c>
       <c r="R14">
-        <v>1.322697707322</v>
+        <v>0.211793184625</v>
       </c>
       <c r="S14">
-        <v>2.932881752107364E-05</v>
+        <v>3.483049936673901E-06</v>
       </c>
       <c r="T14">
-        <v>2.932881752107365E-05</v>
+        <v>3.4830499366739E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H15">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I15">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J15">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P15">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q15">
-        <v>0.5412397389633334</v>
+        <v>0.4840854179861113</v>
       </c>
       <c r="R15">
-        <v>4.87115765067</v>
+        <v>4.356768761875001</v>
       </c>
       <c r="S15">
-        <v>0.0001080105401725799</v>
+        <v>7.164934597409286E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001080105401725799</v>
+        <v>7.164934597409284E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H16">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I16">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J16">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N16">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q16">
-        <v>1.347001138468667</v>
+        <v>1.33832579575</v>
       </c>
       <c r="R16">
-        <v>12.123010246218</v>
+        <v>12.04493216175</v>
       </c>
       <c r="S16">
-        <v>0.0002688093835418414</v>
+        <v>0.00019808522298537</v>
       </c>
       <c r="T16">
-        <v>0.0002688093835418415</v>
+        <v>0.00019808522298537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H17">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I17">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J17">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N17">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q17">
-        <v>0.8075821004373331</v>
+        <v>1.303145264027778</v>
       </c>
       <c r="R17">
-        <v>7.268238903935999</v>
+        <v>11.72830737625</v>
       </c>
       <c r="S17">
-        <v>0.0001611621849293892</v>
+        <v>0.0001928781624227848</v>
       </c>
       <c r="T17">
-        <v>0.0001611621849293892</v>
+        <v>0.0001928781624227848</v>
       </c>
     </row>
   </sheetData>
